--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,271 +444,75 @@
           <t>size</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.021e-05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.8970117839</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.00364476554905657</v>
+        <v>0.00071511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.15994556</v>
-      </c>
-      <c r="C3" t="n">
-        <v>47.61579321199999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09148514741079107</v>
+        <v>3e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.98394847</v>
-      </c>
-      <c r="C4" t="n">
-        <v>47.61579321199999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09148514741079107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.6825</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03589504975570509</v>
+        <v>5.999999999999999e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.89037</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.991331406</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04801632994940105</v>
+        <v>1.283e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.46877308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>28.699114254208</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05514016507959113</v>
+        <v>3e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.62578157</v>
-      </c>
-      <c r="C8" t="n">
-        <v>199.805444773413</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3838900779661418</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MATIC</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23.65750676</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.9042292588</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.02863578486899834</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DOGE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>319</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26.29836</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.05052754934796972</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>48.08</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.29836</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.05052754934796972</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SOL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.43412568</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18.6196504152</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.03577429562892755</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DOT</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.50550586</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23.9526360216</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.04602066435303766</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AVAX</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.57878228</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15.106217508</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.02902386881146331</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NEAR</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.82795156</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10.05738948312</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01932345756237642</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CKB</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3008</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.89696</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.02670049889752674</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MBOX</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2.21664127</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.03487668586</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.003909648060252588</v>
+        <v>3.21e-06</v>
       </c>
     </row>
   </sheetData>
